--- a/evaluation/output/scores_human_avg.xlsx
+++ b/evaluation/output/scores_human_avg.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA2" t="n">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="AG4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE5" t="n">
         <v>3</v>
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI6" t="n">
         <v>2</v>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1509,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1733,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1808,13 +1808,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AA9" t="n">
         <v>2</v>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -1965,13 +1965,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -2019,13 +2019,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="AG10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -2129,13 +2129,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2177,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2220,10 +2220,10 @@
         <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2339,13 +2339,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2361,13 +2361,13 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -2470,13 +2470,13 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2494,13 +2494,13 @@
         </is>
       </c>
       <c r="AG12" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2586,13 +2586,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2628,13 +2628,13 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AD13" t="n">
         <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="AG13" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH13" t="n">
         <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2738,13 +2738,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2760,13 +2760,13 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S14" t="n">
         <v>2</v>
@@ -2828,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA14" t="n">
         <v>2</v>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="AG14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH14" t="n">
         <v>2</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3014,13 +3014,13 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -3060,13 +3060,13 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3138,13 +3138,13 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -3158,13 +3158,13 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -3178,13 +3178,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3264,13 +3264,13 @@
         </is>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI16" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3378,13 +3378,13 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -3398,13 +3398,13 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -3424,13 +3424,13 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -3485,7 +3485,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -3528,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -3564,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -3582,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3666,13 +3666,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>2</v>
@@ -3758,10 +3758,10 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
         <v>2</v>
@@ -3780,13 +3780,13 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -3868,13 +3868,13 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3906,13 +3906,13 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA20" t="n">
         <v>2</v>
@@ -3952,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI20" t="n">
         <v>2</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -4093,13 +4093,13 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -4117,13 +4117,13 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="AG21" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4187,13 +4187,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -4229,13 +4229,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -4247,13 +4247,13 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -4266,13 +4266,13 @@
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4333,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AI22" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -4366,13 +4366,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -4424,13 +4424,13 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -4520,13 +4520,13 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4553,13 +4553,13 @@
         </is>
       </c>
       <c r="AG23" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4589,10 +4589,10 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -4653,13 +4653,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -4691,13 +4691,13 @@
         </is>
       </c>
       <c r="Y24" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -4744,13 +4744,13 @@
         </is>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -4807,10 +4807,10 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N25" t="n">
         <v>2</v>
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4887,10 +4887,10 @@
         </is>
       </c>
       <c r="Y25" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA25" t="n">
         <v>2</v>
@@ -4926,13 +4926,13 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4975,10 +4975,10 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5000,13 +5000,13 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -5024,13 +5024,13 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="AG26" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AI26" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -5165,13 +5165,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -5216,13 +5216,13 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -5236,13 +5236,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5257,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         <v>3</v>
       </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -5317,10 +5317,10 @@
         <v>2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="AG27" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -5366,13 +5366,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5391,10 +5391,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
@@ -5512,10 +5512,10 @@
         <v>3</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD28" t="n">
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5567,13 +5567,13 @@
         </is>
       </c>
       <c r="AG28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AI28" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -5605,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -5679,13 +5679,13 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
@@ -5731,13 +5731,13 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA29" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -5823,13 +5823,13 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="AG29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AI29" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -5876,13 +5876,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -5941,13 +5941,13 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -5969,13 +5969,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5992,13 +5992,13 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="V30" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AA30" t="n">
         <v>3</v>
@@ -6070,13 +6070,13 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6087,10 +6087,10 @@
         <v>3</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -6119,13 +6119,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -6194,10 +6194,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="R31" t="n">
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -6279,10 +6279,10 @@
         <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -6326,13 +6326,13 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD31" t="n">
         <v>2</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6344,13 +6344,13 @@
         </is>
       </c>
       <c r="AG31" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
